--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\MyFramework_new\MYFramework\src\main\java\helper\exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag\git\newFramework\MYFramework\src\main\java\helper\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4DB32A-A75E-4BF2-AA5C-29989FF2673D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
     <sheet name="CreateRequisition" sheetId="3" r:id="rId3"/>
     <sheet name="AddNewEmployee" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNewEmployeeTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>Username</t>
   </si>
@@ -166,12 +166,21 @@
   </si>
   <si>
     <t>Hire Employee - Acquisition (HIR_ACQ)</t>
+  </si>
+  <si>
+    <t>outputtemplate</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>inputtemplate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,20 +548,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -584,7 +593,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -592,29 +601,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -626,29 +635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -689,7 +698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -730,7 +739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -765,7 +774,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -807,21 +816,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -832,7 +841,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -847,4 +856,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Username</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>inputtemplate</t>
+  </si>
+  <si>
+    <t>https://performancemanager8.successfactors.com/sf/home?bplte_company=BPOCUSTOM10#Shell-home</t>
   </si>
 </sst>
 </file>
@@ -231,10 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,13 +566,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -860,15 +864,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,6 +888,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>https://performancemanager8.successfactors.com/sf/home?bplte_company=BPOCUSTOM10#Shell-home</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
@@ -553,11 +556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -565,7 +566,7 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,8 +576,11 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>

--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parag\git\newFramework\MYFramework\src\main\java\helper\exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\NewFrameworks_1\MYFramework\src\main\java\helper\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3020713-1024-4AA3-A286-4F4C5CF17787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="HomePage" sheetId="2" r:id="rId2"/>
-    <sheet name="CreateRequisition" sheetId="3" r:id="rId3"/>
-    <sheet name="AddNewEmployee" sheetId="4" r:id="rId4"/>
-    <sheet name="AddNewEmployeeTest" sheetId="5" r:id="rId5"/>
+    <sheet name="LMS" sheetId="6" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="2" r:id="rId3"/>
+    <sheet name="CreateRequisition" sheetId="3" r:id="rId4"/>
+    <sheet name="AddNewEmployee" sheetId="4" r:id="rId5"/>
+    <sheet name="AddNewEmployeeTest" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Username</t>
   </si>
@@ -39,9 +41,6 @@
     <t>bparag</t>
   </si>
   <si>
-    <t>pBorprg@81</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -181,13 +180,22 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>welcome123</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>ClassesText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +217,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF1B263A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,11 +253,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,18 +572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,34 +593,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="pBorprg@81" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -609,31 +628,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606D91B-2CAB-45D0-84DF-071D6DC42850}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -643,178 +654,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -824,40 +688,178 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -867,37 +869,81 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\NewFrameworks_1\MYFramework\src\main\java\helper\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3020713-1024-4AA3-A286-4F4C5CF17787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BE01F-AAEF-4C30-83AA-E9DC788F03EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="LMS" sheetId="6" r:id="rId2"/>
     <sheet name="HomePage" sheetId="2" r:id="rId3"/>
-    <sheet name="CreateRequisition" sheetId="3" r:id="rId4"/>
-    <sheet name="AddNewEmployee" sheetId="4" r:id="rId5"/>
-    <sheet name="AddNewEmployeeTest" sheetId="5" r:id="rId6"/>
+    <sheet name="LearningPage" sheetId="7" r:id="rId4"/>
+    <sheet name="CreateRequisition" sheetId="3" r:id="rId5"/>
+    <sheet name="AddNewEmployee" sheetId="4" r:id="rId6"/>
+    <sheet name="AddNewEmployeeTest" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Username</t>
   </si>
@@ -189,6 +190,12 @@
   </si>
   <si>
     <t>ClassesText</t>
+  </si>
+  <si>
+    <t>SearchBox</t>
+  </si>
+  <si>
+    <t>PassportTraining</t>
   </si>
 </sst>
 </file>
@@ -631,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3606D91B-2CAB-45D0-84DF-071D6DC42850}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -688,6 +695,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E086AC3-3D27-4938-A6D5-EFCCF5BDF4E8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -868,7 +904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -911,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
+++ b/MYFramework/src/main/java/helper/exceldata/Frameworkworksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parag.borawake\git\NewFrameworks_1\MYFramework\src\main\java\helper\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4BE01F-AAEF-4C30-83AA-E9DC788F03EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C6DA9-5D85-41DF-94F1-216184081207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Username</t>
   </si>
@@ -195,7 +195,25 @@
     <t>SearchBox</t>
   </si>
   <si>
-    <t>PassportTraining</t>
+    <t>NeedByDate</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>HR Operations (10011001) (HR Operations (10011001))</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Melbourne Dandenong Site (AB_F001)</t>
   </si>
 </sst>
 </file>
@@ -260,12 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,25 +715,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E086AC3-3D27-4938-A6D5-EFCCF5BDF4E8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
